--- a/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>17.11139591228504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17.47277291115309</v>
+        <v>17.4727729111531</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>16.86067544744432</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.30845463434605</v>
+        <v>17.31996504867652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.94740936751929</v>
+        <v>17.94162673437925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.88198998840744</v>
+        <v>16.88207039087392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.20397893420736</v>
+        <v>17.20041097592374</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.59960383162038</v>
+        <v>16.5916364677282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.5780705116615</v>
+        <v>17.59247941753016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.58483282213686</v>
+        <v>16.57633705872747</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.20459860349674</v>
+        <v>17.21448129405887</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.02141618011456</v>
+        <v>17.03019473944858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.81765561454981</v>
+        <v>17.8132229740575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.79790039981435</v>
+        <v>16.80366828118743</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>17.28802787261846</v>
+        <v>17.2849693277523</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.70505499534061</v>
+        <v>17.72443745972592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.31198511551255</v>
+        <v>18.31093355161743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.32689414286235</v>
+        <v>17.3345999910616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.72612365998062</v>
+        <v>17.74765677854796</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.101530032627</v>
+        <v>17.09888612847284</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.98798754655391</v>
+        <v>17.99195977855669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.02593458918813</v>
+        <v>17.02608835167666</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.5941679524355</v>
+        <v>17.58860156424233</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.34539524940988</v>
+        <v>17.35443092826103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.10293389531272</v>
+        <v>18.08225241666604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.11812523075315</v>
+        <v>17.12326147820419</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.60735988607668</v>
+        <v>17.60408043899477</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.34379859024155</v>
+        <v>17.35008834098026</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.61005600809743</v>
+        <v>17.59902457844648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.19366212660724</v>
+        <v>17.16305656294697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.29009526710688</v>
+        <v>17.29374720999465</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.04113183926985</v>
+        <v>17.03740714141374</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.46627260542542</v>
+        <v>17.44919034186503</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.09440668352351</v>
+        <v>17.06895163245219</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.03249855907685</v>
+        <v>17.02278927271216</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.25001528467315</v>
+        <v>17.26546633673887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.58671726579701</v>
+        <v>17.57680395811412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.1863014279712</v>
+        <v>17.18030837967376</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.21749347768736</v>
+        <v>17.2134427535729</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.7433250503404</v>
+        <v>17.74865445762475</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.92221425777631</v>
+        <v>17.92633710126776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.52324814207442</v>
+        <v>17.50388114938337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.6866716752209</v>
+        <v>17.69901210794977</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.4240317843776</v>
+        <v>17.44089199995081</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.76659514069016</v>
+        <v>17.77131336930803</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.40900455473486</v>
+        <v>17.39433359057876</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.36136049490115</v>
+        <v>17.36844588984384</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.53264862884323</v>
+        <v>17.53877286454382</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.80435090341046</v>
+        <v>17.80295008910674</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.41706424881093</v>
+        <v>17.40793944044452</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.49649784212936</v>
+        <v>17.48791329896239</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>16.78970243982624</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.60300513105718</v>
+        <v>17.60300513105719</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>17.47184865586268</v>
@@ -965,7 +965,7 @@
         <v>16.68767362907355</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>17.59532675457233</v>
+        <v>17.59532675457234</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.51113226454663</v>
+        <v>17.50827813573054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.58152240500078</v>
+        <v>17.57598076095881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.60678474299142</v>
+        <v>16.58650406873187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.356546390393</v>
+        <v>17.3572386329321</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.21422807507424</v>
+        <v>17.18984014881658</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.33726360983352</v>
+        <v>17.34605534392679</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.41704897592989</v>
+        <v>16.38617898424135</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.37210616524681</v>
+        <v>17.37392320924058</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.42866527951846</v>
+        <v>17.45250185062209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.52380009965432</v>
+        <v>17.53366882856217</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.55763070298716</v>
+        <v>16.54513444595301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.44332016935306</v>
+        <v>17.42904660761945</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.00576523031054</v>
+        <v>18.00508230802427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.98059191915729</v>
+        <v>17.97473349995157</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.98772851657805</v>
+        <v>16.94977457612172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.81299518010454</v>
+        <v>17.80809321148753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.67892242350231</v>
+        <v>17.69730841749177</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.74533703369693</v>
+        <v>17.74997805380072</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.76365299038747</v>
+        <v>16.75999916384117</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.75902580258531</v>
+        <v>17.76714572067028</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.77489603239137</v>
+        <v>17.77405978443635</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.82962275111598</v>
+        <v>17.83119851016757</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16.83012623346447</v>
+        <v>16.80479191950173</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.73149441766486</v>
+        <v>17.74401045728481</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.17936581072627</v>
+        <v>17.18980464241828</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.44125593037712</v>
+        <v>17.4277541478679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17.25436075512934</v>
+        <v>17.24137501076734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.2666083822641</v>
+        <v>17.25652251025509</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16.9172451805846</v>
+        <v>16.92101282188378</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.14350432460124</v>
+        <v>17.13035380388523</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.07424369844619</v>
+        <v>17.06992080671127</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.23589034128047</v>
+        <v>17.22488581324648</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.12152380395257</v>
+        <v>17.12163145466505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.31236279358398</v>
+        <v>17.34209616691626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.20241510162847</v>
+        <v>17.20147483443539</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.30860247487008</v>
+        <v>17.29862122995285</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.58132537966063</v>
+        <v>17.57148591105082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.76891686303798</v>
+        <v>17.77418702009234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.57581135213281</v>
+        <v>17.58729094270858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.68518236738115</v>
+        <v>17.67342022703911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.36143427959614</v>
+        <v>17.34339030909939</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.5018992334801</v>
+        <v>17.4926994824854</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.4458507680493</v>
+        <v>17.44655108551918</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.58886528163733</v>
+        <v>17.55194738796285</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.40972764218989</v>
+        <v>17.40474938871582</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.57204968915578</v>
+        <v>17.5816948612833</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.45964880244685</v>
+        <v>17.46311551659282</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.55898159038618</v>
+        <v>17.55900113324613</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>17.43557613332612</v>
+        <v>17.44244776701244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.71885371849482</v>
+        <v>17.71306898708089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.10258600904802</v>
+        <v>17.11460326327352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.40112877394468</v>
+        <v>17.40119774765895</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.07120472054473</v>
+        <v>17.05870821963127</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.4521006412773</v>
+        <v>17.46046999541545</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.92908062907809</v>
+        <v>16.92649472435913</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.29168442293502</v>
+        <v>17.28862291543497</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.28366639183418</v>
+        <v>17.28629935885544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.60627291473986</v>
+        <v>17.60796083647228</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.03843250634946</v>
+        <v>17.03984675130189</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.37449261460893</v>
+        <v>17.37847186163799</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.64839470283052</v>
+        <v>17.63986620099217</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.89283001513119</v>
+        <v>17.88817111204339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.29141644919858</v>
+        <v>17.29970936872567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.62004796889356</v>
+        <v>17.63261000576738</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.28551172476867</v>
+        <v>17.27721258296998</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.63836685635143</v>
+        <v>17.6405218883501</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.12606710556096</v>
+        <v>17.11363533062856</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.46899547497853</v>
+        <v>17.47105540049682</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.43559789138353</v>
+        <v>17.44384738849888</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.73635572533399</v>
+        <v>17.73991521000577</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.18069488161414</v>
+        <v>17.17579341402944</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.51667800593346</v>
+        <v>17.51802243580736</v>
       </c>
     </row>
     <row r="19">
